--- a/static/assets/last_year_review.xlsx
+++ b/static/assets/last_year_review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlitchliter/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlitchliter/Documents/web/elevate-marketing-site/static/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943BF1D2-A320-A14E-B162-1ED9DCC262D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAEBAE55-0BA3-E844-A1B0-0BC85E8014AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="900" windowWidth="24620" windowHeight="15100" xr2:uid="{1767E3BB-9599-4ECF-A057-BF048D3C0CEE}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,13 +300,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>56338</xdr:rowOff>
+      <xdr:rowOff>117277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,21 +322,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228599" y="246838"/>
-          <a:ext cx="1625601" cy="708837"/>
+          <a:off x="228599" y="307777"/>
+          <a:ext cx="1625601" cy="586958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,10 +647,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -660,7 +659,7 @@
     <col min="10" max="10" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -672,7 +671,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -684,7 +683,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
@@ -696,7 +695,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -708,7 +707,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -720,7 +719,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -732,7 +731,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="21">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -746,7 +745,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="44" customHeight="1">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -776,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -790,12 +789,12 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
+    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
@@ -809,12 +808,12 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
+    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
@@ -828,12 +827,12 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
+    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -847,12 +846,12 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
+    <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
+    <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
@@ -866,12 +865,12 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
+    <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
+    <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -885,12 +884,12 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
+    <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -902,7 +901,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="16">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
